--- a/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>167791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147442</v>
+        <v>146854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190732</v>
+        <v>190017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.242926096150346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2134651162258739</v>
+        <v>0.2126129767404145</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2761394352667783</v>
+        <v>0.2751039327254245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>555</v>
@@ -762,19 +762,19 @@
         <v>297130</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>276817</v>
+        <v>276257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>318576</v>
+        <v>317263</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4047094273338991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3770420685121533</v>
+        <v>0.3762791458968595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4339208576257844</v>
+        <v>0.4321320620922463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>770</v>
@@ -783,19 +783,19 @@
         <v>464921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>432926</v>
+        <v>432818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>495405</v>
+        <v>497432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.32628558886443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3038314347536618</v>
+        <v>0.3037556242967709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3476798439253327</v>
+        <v>0.3491022625701996</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>522919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>499978</v>
+        <v>500693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543268</v>
+        <v>543856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.757073903849654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7238605647332221</v>
+        <v>0.7248960672745757</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7865348837741262</v>
+        <v>0.7873870232595861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>686</v>
@@ -833,19 +833,19 @@
         <v>437050</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>415604</v>
+        <v>416917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457363</v>
+        <v>457923</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5952905726661009</v>
+        <v>0.5952905726661007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5660791423742153</v>
+        <v>0.5678679379077535</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6229579314878465</v>
+        <v>0.6237208541031405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1201</v>
@@ -854,19 +854,19 @@
         <v>959968</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>929484</v>
+        <v>927457</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>991963</v>
+        <v>992071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6737144111355701</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6523201560746673</v>
+        <v>0.6508977374298004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6961685652463382</v>
+        <v>0.6962443757032292</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>216435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>187478</v>
+        <v>192295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>244050</v>
+        <v>247192</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2063413310256825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1787347810559997</v>
+        <v>0.1833269734617601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2326689348605816</v>
+        <v>0.2356636141574056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>664</v>
@@ -979,19 +979,19 @@
         <v>433846</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>402896</v>
+        <v>405834</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>462167</v>
+        <v>463314</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4049060062666233</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3760201573887801</v>
+        <v>0.378762070764686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4313379651297477</v>
+        <v>0.4324083125388959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>902</v>
@@ -1000,19 +1000,19 @@
         <v>650281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>612239</v>
+        <v>609349</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>692988</v>
+        <v>688759</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3066798544538449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2887388978015303</v>
+        <v>0.2873759332946409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3268207255477754</v>
+        <v>0.3248265075300275</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>832482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>804867</v>
+        <v>801725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>861439</v>
+        <v>856622</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7936586689743176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7673310651394178</v>
+        <v>0.7643363858425941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8212652189440002</v>
+        <v>0.8166730265382387</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>853</v>
@@ -1050,19 +1050,19 @@
         <v>637628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>609307</v>
+        <v>608160</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>668578</v>
+        <v>665640</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5950939937333768</v>
+        <v>0.5950939937333767</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5686620348702525</v>
+        <v>0.5675916874611042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6239798426112199</v>
+        <v>0.621237929235314</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1579</v>
@@ -1071,19 +1071,19 @@
         <v>1470110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1427403</v>
+        <v>1431632</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1508152</v>
+        <v>1511042</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.693320145546155</v>
+        <v>0.6933201455461551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6731792744522247</v>
+        <v>0.6751734924699725</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7112611021984697</v>
+        <v>0.7126240667053592</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>191823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166109</v>
+        <v>169373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221241</v>
+        <v>220706</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.238860875202166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2068420039042322</v>
+        <v>0.2109059991500823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.275493173936329</v>
+        <v>0.2748268002587196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>463</v>
@@ -1196,19 +1196,19 @@
         <v>345442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>319335</v>
+        <v>319365</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>371964</v>
+        <v>371010</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4252849568009017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3931445563714455</v>
+        <v>0.3931815677400102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.45793750003823</v>
+        <v>0.4567630969428635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>644</v>
@@ -1217,19 +1217,19 @@
         <v>537264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>500025</v>
+        <v>498281</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>579357</v>
+        <v>575255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3326029725462319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3095495454827487</v>
+        <v>0.3084695189388708</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3586613317361229</v>
+        <v>0.356121720057904</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>611250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>581832</v>
+        <v>582367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636964</v>
+        <v>633700</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7611391247978341</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7245068260636709</v>
+        <v>0.7251731997412796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7931579960957678</v>
+        <v>0.7890940008499177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>584</v>
@@ -1267,19 +1267,19 @@
         <v>466817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>440295</v>
+        <v>441249</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>492924</v>
+        <v>492894</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5747150431990984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.54206249996177</v>
+        <v>0.5432369030571365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6068554436285544</v>
+        <v>0.6068184322599898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1079</v>
@@ -1288,19 +1288,19 @@
         <v>1078068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1035975</v>
+        <v>1040077</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1115307</v>
+        <v>1117051</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6673970274537679</v>
+        <v>0.6673970274537682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6413386682638773</v>
+        <v>0.643878279942096</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6904504545172513</v>
+        <v>0.6915304810611292</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>233185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>203857</v>
+        <v>206326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>258900</v>
+        <v>262246</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2355261568894467</v>
+        <v>0.2355261568894468</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2059030655209617</v>
+        <v>0.2083967325345084</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2614990093391804</v>
+        <v>0.2648788053757267</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>643</v>
@@ -1413,19 +1413,19 @@
         <v>438945</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>412609</v>
+        <v>412549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>469192</v>
+        <v>469848</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3922510414044614</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3687164296520286</v>
+        <v>0.3686632529677125</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4192808403437477</v>
+        <v>0.4198667543867949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>906</v>
@@ -1434,19 +1434,19 @@
         <v>672131</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>632611</v>
+        <v>629685</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>711386</v>
+        <v>714261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3186807401562495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2999430818670971</v>
+        <v>0.2985555312541082</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3372932107349918</v>
+        <v>0.3386560063794826</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>756877</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>731162</v>
+        <v>727816</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>786205</v>
+        <v>783736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7644738431105532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7385009906608195</v>
+        <v>0.7351211946242732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7940969344790383</v>
+        <v>0.7916032674654918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>919</v>
@@ -1484,19 +1484,19 @@
         <v>680096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>649849</v>
+        <v>649193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>706432</v>
+        <v>706492</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6077489585955387</v>
+        <v>0.6077489585955388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5807191596562523</v>
+        <v>0.5801332456132051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6312835703479713</v>
+        <v>0.6313367470322876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1662</v>
@@ -1505,19 +1505,19 @@
         <v>1436973</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1397718</v>
+        <v>1394843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1476493</v>
+        <v>1479419</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6813192598437505</v>
+        <v>0.6813192598437504</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6627067892650083</v>
+        <v>0.6613439936205173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7000569181329028</v>
+        <v>0.7014444687458917</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>809235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>756967</v>
+        <v>759378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>864184</v>
+        <v>862506</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2290657065499866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2142706609707715</v>
+        <v>0.2149531800210417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2446200034379024</v>
+        <v>0.2441449508816937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2325</v>
@@ -1630,19 +1630,19 @@
         <v>1515362</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1461847</v>
+        <v>1463876</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1564635</v>
+        <v>1565877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4055073583044776</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3911867257992023</v>
+        <v>0.3917298650096089</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4186926124726777</v>
+        <v>0.4190250512978294</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3222</v>
@@ -1651,19 +1651,19 @@
         <v>2324597</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2247254</v>
+        <v>2244614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2406696</v>
+        <v>2391816</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3197644847210012</v>
+        <v>0.3197644847210011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.309125408094979</v>
+        <v>0.3087622451267478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3310578385513819</v>
+        <v>0.3290108820829493</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2723527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2668578</v>
+        <v>2670256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2775795</v>
+        <v>2773384</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7709342934500135</v>
+        <v>0.7709342934500134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7553799965620976</v>
+        <v>0.7558550491183061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7857293390292286</v>
+        <v>0.7850468199789581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3042</v>
@@ -1701,19 +1701,19 @@
         <v>2221592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2172319</v>
+        <v>2171077</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2275107</v>
+        <v>2273078</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5944926416955223</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.581307387527322</v>
+        <v>0.5809749487021708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6088132742007976</v>
+        <v>0.608270134990391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5521</v>
@@ -1722,19 +1722,19 @@
         <v>4945119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4863020</v>
+        <v>4877900</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5022462</v>
+        <v>5025102</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6802355152789988</v>
+        <v>0.6802355152789987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.668942161448618</v>
+        <v>0.6709891179170506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6908745919050211</v>
+        <v>0.6912377548732523</v>
       </c>
     </row>
     <row r="18">
